--- a/teaching/traditional_assets/database/data/kazakhstan/kazakhstan_metals_mining.xlsx
+++ b/teaching/traditional_assets/database/data/kazakhstan/kazakhstan_metals_mining.xlsx
@@ -590,32 +590,35 @@
           <t>Metals &amp; Mining</t>
         </is>
       </c>
+      <c r="D2">
+        <v>-0.0946</v>
+      </c>
       <c r="G2">
-        <v>-8.956989247311828</v>
+        <v>-8.983333333333334</v>
       </c>
       <c r="H2">
-        <v>-10.02150537634409</v>
+        <v>-9.944444444444445</v>
       </c>
       <c r="I2">
-        <v>-26.34408602150538</v>
+        <v>-9.722222222222223</v>
       </c>
       <c r="J2">
-        <v>-26.34408602150538</v>
+        <v>-9.722222222222223</v>
       </c>
       <c r="K2">
-        <v>-8.17</v>
+        <v>-4.83</v>
       </c>
       <c r="L2">
-        <v>-87.84946236559139</v>
+        <v>-26.83333333333334</v>
       </c>
       <c r="M2">
-        <v>1.9</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.1043956043956044</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.2325581395348837</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +630,76 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>1.9</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>0.068</v>
+        <v>0.018</v>
       </c>
       <c r="V2">
-        <v>0.003736263736263737</v>
+        <v>0.0009137055837563451</v>
       </c>
       <c r="W2">
-        <v>-21.22077922077922</v>
+        <v>0.6580381471389646</v>
       </c>
       <c r="X2">
-        <v>0.1675477172486947</v>
+        <v>0.111545147628466</v>
       </c>
       <c r="Y2">
-        <v>-21.38832693802792</v>
+        <v>0.5464929995104986</v>
       </c>
       <c r="Z2">
-        <v>0.009064327485380117</v>
+        <v>0.01539514197742045</v>
       </c>
       <c r="AA2">
-        <v>-0.2387914230019493</v>
+        <v>-0.1496749914471433</v>
       </c>
       <c r="AB2">
-        <v>0.1008441423466439</v>
+        <v>0.09372376010761474</v>
       </c>
       <c r="AC2">
-        <v>-0.3396355653485932</v>
+        <v>-0.2433987515547581</v>
       </c>
       <c r="AD2">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="AG2">
-        <v>19.032</v>
+        <v>19.682</v>
       </c>
       <c r="AH2">
-        <v>0.512064343163539</v>
+        <v>0.5</v>
       </c>
       <c r="AI2">
-        <v>1.624149659863946</v>
+        <v>1.669491525423729</v>
       </c>
       <c r="AJ2">
-        <v>0.5111731843575419</v>
+        <v>0.4997714691991265</v>
       </c>
       <c r="AK2">
-        <v>1.62777967841259</v>
+        <v>1.670514343914446</v>
       </c>
       <c r="AL2">
-        <v>1.87</v>
+        <v>2.67</v>
       </c>
       <c r="AM2">
-        <v>1.87</v>
+        <v>2.67</v>
       </c>
       <c r="AN2">
-        <v>-8.41409691629956</v>
+        <v>-11.32183908045977</v>
       </c>
       <c r="AO2">
-        <v>-1.310160427807487</v>
+        <v>-0.6554307116104869</v>
       </c>
       <c r="AP2">
-        <v>-8.384140969162996</v>
+        <v>-11.31149425287356</v>
       </c>
       <c r="AQ2">
-        <v>-1.310160427807487</v>
+        <v>-0.6554307116104869</v>
       </c>
     </row>
     <row r="3">
@@ -718,32 +718,35 @@
           <t>Metals &amp; Mining</t>
         </is>
       </c>
+      <c r="D3">
+        <v>-0.0946</v>
+      </c>
       <c r="G3">
-        <v>-8.956989247311828</v>
+        <v>-8.983333333333334</v>
       </c>
       <c r="H3">
-        <v>-10.02150537634409</v>
+        <v>-9.944444444444445</v>
       </c>
       <c r="I3">
-        <v>-26.34408602150538</v>
+        <v>-9.722222222222223</v>
       </c>
       <c r="J3">
-        <v>-26.34408602150538</v>
+        <v>-9.722222222222223</v>
       </c>
       <c r="K3">
-        <v>-8.17</v>
+        <v>-4.83</v>
       </c>
       <c r="L3">
-        <v>-87.84946236559139</v>
+        <v>-26.83333333333334</v>
       </c>
       <c r="M3">
-        <v>1.9</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.1043956043956044</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0.2325581395348837</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +758,76 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1.9</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>0.068</v>
+        <v>0.018</v>
       </c>
       <c r="V3">
-        <v>0.003736263736263737</v>
+        <v>0.0009137055837563451</v>
       </c>
       <c r="W3">
-        <v>-21.22077922077922</v>
+        <v>0.6580381471389646</v>
       </c>
       <c r="X3">
-        <v>0.1675477172486947</v>
+        <v>0.111545147628466</v>
       </c>
       <c r="Y3">
-        <v>-21.38832693802792</v>
+        <v>0.5464929995104986</v>
       </c>
       <c r="Z3">
-        <v>0.009064327485380117</v>
+        <v>0.01539514197742045</v>
       </c>
       <c r="AA3">
-        <v>-0.2387914230019493</v>
+        <v>-0.1496749914471433</v>
       </c>
       <c r="AB3">
-        <v>0.1008441423466439</v>
+        <v>0.09372376010761474</v>
       </c>
       <c r="AC3">
-        <v>-0.3396355653485932</v>
+        <v>-0.2433987515547581</v>
       </c>
       <c r="AD3">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>19.1</v>
+        <v>19.7</v>
       </c>
       <c r="AG3">
-        <v>19.032</v>
+        <v>19.682</v>
       </c>
       <c r="AH3">
-        <v>0.512064343163539</v>
+        <v>0.5</v>
       </c>
       <c r="AI3">
-        <v>1.624149659863946</v>
+        <v>1.669491525423729</v>
       </c>
       <c r="AJ3">
-        <v>0.5111731843575419</v>
+        <v>0.4997714691991265</v>
       </c>
       <c r="AK3">
-        <v>1.62777967841259</v>
+        <v>1.670514343914446</v>
       </c>
       <c r="AL3">
-        <v>1.87</v>
+        <v>2.67</v>
       </c>
       <c r="AM3">
-        <v>1.87</v>
+        <v>2.67</v>
       </c>
       <c r="AN3">
-        <v>-8.41409691629956</v>
+        <v>-11.32183908045977</v>
       </c>
       <c r="AO3">
-        <v>-1.310160427807487</v>
+        <v>-0.6554307116104869</v>
       </c>
       <c r="AP3">
-        <v>-8.384140969162996</v>
+        <v>-11.31149425287356</v>
       </c>
       <c r="AQ3">
-        <v>-1.310160427807487</v>
+        <v>-0.6554307116104869</v>
       </c>
     </row>
   </sheetData>
